--- a/data/data_metadata.xlsx
+++ b/data/data_metadata.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_54DB035FC063FE12F387560143F2BF922C73007F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3F221B-0338-4D69-A52B-CDD17751F224}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/swg-21-connectivity/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C94FE7F-0DA6-524E-9619-449015C20156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="620" windowWidth="27220" windowHeight="15140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_origin" sheetId="1" r:id="rId1"/>
+    <sheet name="data_raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>DatasetName</t>
   </si>
@@ -107,13 +113,151 @@
   </si>
   <si>
     <t>Object in the script get_djfmp_fish.R (sourced from package LTMRdata)</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>repo_location</t>
+  </si>
+  <si>
+    <t>data_raw</t>
+  </si>
+  <si>
+    <t>raw_watertemp_continuous_stations.csv</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>list of stations</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>stations with continuous temperature data, lat/lon, start and end dates, and habitat type and basin.</t>
+  </si>
+  <si>
+    <t>n_obs</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>rds</t>
+  </si>
+  <si>
+    <t>raw_watertemp_continuous.rds</t>
+  </si>
+  <si>
+    <t>continuous hourly water temperature data, with station and station name</t>
+  </si>
+  <si>
+    <t>raw_stage_fre.csv.gz</t>
+  </si>
+  <si>
+    <t>csv.gz</t>
+  </si>
+  <si>
+    <t>stage feet</t>
+  </si>
+  <si>
+    <t>hourly stage at Fremont weir</t>
+  </si>
+  <si>
+    <t>in_scripts</t>
+  </si>
+  <si>
+    <t>raw_chla_usgs_cawsc.csv</t>
+  </si>
+  <si>
+    <t>chl-a</t>
+  </si>
+  <si>
+    <t>raw_temp_srad_cimis_Bryte.csv</t>
+  </si>
+  <si>
+    <t>f_get_watertemp.R</t>
+  </si>
+  <si>
+    <t>f_get_fre.R</t>
+  </si>
+  <si>
+    <t>point chla measurements at a collection of stations</t>
+  </si>
+  <si>
+    <t>f_get_usgs_cawsc_chla.R</t>
+  </si>
+  <si>
+    <t>CIMIS met data</t>
+  </si>
+  <si>
+    <t>f_get_temp_srad_cimis.R</t>
+  </si>
+  <si>
+    <t>CIMIS air temp, solar radiation, precip, met data</t>
+  </si>
+  <si>
+    <t>f_get_flow_verona.R</t>
+  </si>
+  <si>
+    <t>raw_flow_usgs_11425500.csv</t>
+  </si>
+  <si>
+    <t>discharge cfs</t>
+  </si>
+  <si>
+    <t>Flow discharge (cfs) from Verona 1929-2021</t>
+  </si>
+  <si>
+    <t>raw_daymet_yolo_1994-2020.csv</t>
+  </si>
+  <si>
+    <t>Yolo Daily daymet data (1994-2020), precip, radiation, temp</t>
+  </si>
+  <si>
+    <t>f_get_daymet.R</t>
+  </si>
+  <si>
+    <t>met data</t>
+  </si>
+  <si>
+    <t>raw_dayflow.csv</t>
+  </si>
+  <si>
+    <t>modeled flow</t>
+  </si>
+  <si>
+    <t>f_get_dayflow.R</t>
+  </si>
+  <si>
+    <t>Yolo dayflow</t>
+  </si>
+  <si>
+    <t>raw_fish_djfmp.csv.gz</t>
+  </si>
+  <si>
+    <t>fish data</t>
+  </si>
+  <si>
+    <t>f_get_fish.R</t>
+  </si>
+  <si>
+    <t>Fish data for multiple sites 1976-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,21 +630,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -546,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -569,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -603,22 +747,260 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9F73F9-5FB1-CC49-A231-B8DC5503E494}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>13188972</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>226580</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>8351</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>33637</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>9855</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>8766</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>2500110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008ECAB31773B3D64A955B79DCECF3D75D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2078a7c437835ce6ccc54ed572140080">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1812b7d3-e7a1-454a-96a7-d89f9c45d61a" xmlns:ns3="6a4f18d6-d02c-47de-8192-877c1ae6ba95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5cdadb961a881ff75adc1ded15049d8" ns2:_="" ns3:_="">
     <xsd:import namespace="1812b7d3-e7a1-454a-96a7-d89f9c45d61a"/>
@@ -827,14 +1209,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CFE58D-EC67-49C7-916B-C146FCF406E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F1F273-D8B3-4DFC-A8D0-8D32DAE7086C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1812b7d3-e7a1-454a-96a7-d89f9c45d61a"/>
+    <ds:schemaRef ds:uri="6a4f18d6-d02c-47de-8192-877c1ae6ba95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B201CA-E161-4144-AF93-F219EC98C52E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2B201CA-E161-4144-AF93-F219EC98C52E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F1F273-D8B3-4DFC-A8D0-8D32DAE7086C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CFE58D-EC67-49C7-916B-C146FCF406E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>